--- a/publipostage/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
+++ b/publipostage/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT01964456</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>"Narcisse &amp; Echo : Self-consciousness and the Inter-subjective Body"</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Narcisse</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -525,32 +535,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT02476188</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Neutrophil Extracellular Traps and Thrombolysis in the Acute Stroke</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>NETs</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -562,32 +577,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT01437527</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Body Image Therapy in Anorexia Nervosa</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>PIPA</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -599,32 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT02602951</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4D FLOW: Feasibility Study of a Sequence 4D of Flow Applied to the Cervico-encephalic Vascular Pathologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>4D-FLOW</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -636,32 +661,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT03084848</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Cerebral Bases of the Cognitive Learning in the Executive Control In the Adolescence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>APEX-ADO</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -673,32 +703,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT04008719</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Predictivity of Attention Test and Executive Functions After Stroke to Predict Depression 3 Months After Stroke.</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>ATTEST-Depress</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -710,107 +745,122 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT03475225</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Effect of the Treatment of Vitamin D Deficiency in Drug-resistant Epilepsy</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>EPI-D</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT04350580</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT03934073</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Value of Early Treatment With Polyvalent Immunoglobulin in the Management of Acute Respiratory Distress Syndrome Associated With SARS-CoV-2 Infections</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ICAR</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
+          <t>Evaluation of the Benefit of the Training of the Manual Dexterity Post-stroke: Effect on the Function and Spontaneous Use of the Hand and the Cerebral Plasticity</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>DEXTRAIN</t>
+        </is>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT03934073</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT04350580</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Evaluation of the Benefit of the Training of the Manual Dexterity Post-stroke: Effect on the Function and Spontaneous Use of the Hand and the Cerebral Plasticity</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DEXTRAIN</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
+          <t>Value of Early Treatment With Polyvalent Immunoglobulin in the Management of Acute Respiratory Distress Syndrome Associated With SARS-CoV-2 Infections</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ICAR</t>
+        </is>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -821,32 +871,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT02841098</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>" Endarterectomy Combined With Optimal Medical Therapy Versus Optimal Medical Therapy Alone in Patients With Asymptomatic Severe Atherosclerotic Carotid Artery Stenosis at Higher-than-average Risk of Ipsilateral Stroke "</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>ACTRIS</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -858,32 +913,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT02235012</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT02476435</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cognitive Biases in Decision Making in a Pharmacological Model of Psychosis : a Study in Healthy Humans Recieving Low Dose Anesthetic, Ketamine Versus Placebo</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>KETABI</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+          <t>Depersonalization Disorder: Therapeutic Effect of Neuronavigated Repetitive Transcranial Stimulation of Right Angular Gyrus.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>PERSONA</t>
+        </is>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -895,32 +955,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT02476435</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT02235012</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Depersonalization Disorder: Therapeutic Effect of Neuronavigated Repetitive Transcranial Stimulation of Right Angular Gyrus.</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PERSONA</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+          <t>Cognitive Biases in Decision Making in a Pharmacological Model of Psychosis : a Study in Healthy Humans Recieving Low Dose Anesthetic, Ketamine Versus Placebo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>KETABI</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,32 +997,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>NCT02576821</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Hippocampal Sclerosis and Amnesia Not Due to Alzheimer's Disease</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>ShaTau7</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -969,32 +1039,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>NCT06658392</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Domain-general and Domain-specific Contributions to the Development of Numerical Cognition</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>CFDDCN</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1004,32 +1079,37 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>2017-001019-35</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>Effect of vitamin D deficiency compensation in the treatment of drug-resistant epilepsy. 
  Effet de la compensation du déficit en vitamine D dans le traitement de l'épilepsie pharmaco-résistante.</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Epi-D 
  Epi-D</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
+++ b/publipostage/02kxjxy06/liste_essais_cliniques_identifies_02kxjxy06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +719,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +766,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +813,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +860,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -862,6 +907,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -904,6 +954,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -946,6 +1001,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -988,6 +1048,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1030,6 +1095,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1072,6 +1142,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1112,6 +1187,7 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
